--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23702D25-196D-4452-A016-8F3D3C8D1478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43525F5-30DA-4826-8C93-F163DE36F88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,13 +216,7 @@
     <t>業務科目記號</t>
   </si>
   <si>
-    <t>銷帳科目記號</t>
-  </si>
-  <si>
     <t>ClsChkFlag</t>
-  </si>
-  <si>
-    <t>放款部使用記號</t>
   </si>
   <si>
     <t>Key ID</t>
@@ -313,12 +307,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0:非銷帳科目
-1:會計銷帳科目(銷帳編號由系統自編,ex:應收利息)
-2:業務銷帳科目(銷帳編號由業務自編,ex:暫付及待結轉帳項－火險保費)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">0:不檢查
 1:不過餘額(借貸分由放款及核心系統出帳)
 2:應&gt;=0
@@ -330,6 +318,20 @@
   <si>
     <t>0:可以使用
 1:不可使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳科目記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0－非銷帳科目
+2－業務銷帳科目(銷帳編號由業務自編,ex:暫付及待結轉帳項－火險保費)
+8－總帳銷帳碼科目(銷帳編號由業務自編,ex:應收利息，不會寫入銷帳檔)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,10 +563,10 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -576,9 +578,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -591,9 +590,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,7 +617,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -993,30 +989,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="21" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="23" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="6" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="21" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.109375" style="19" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.4" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="10"/>
@@ -1024,80 +1020,80 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1">
+      <c r="D7" s="17"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -1116,88 +1112,88 @@
       <c r="F8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>11</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>5</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>2</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="5">
         <v>40</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1206,36 +1202,36 @@
       <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="32.4">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1244,7 +1240,7 @@
       <c r="C15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="5">
@@ -1252,11 +1248,11 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1265,7 +1261,7 @@
       <c r="C16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="5">
@@ -1273,11 +1269,11 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1286,7 +1282,7 @@
       <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="5">
@@ -1298,7 +1294,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="36.450000000000003" customHeight="1">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1307,7 +1303,7 @@
       <c r="C18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="5">
@@ -1315,20 +1311,20 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="81">
+      <c r="A19" s="19">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="5">
@@ -1336,20 +1332,20 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="36" customHeight="1">
-      <c r="A20" s="21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="97.2">
+      <c r="A20" s="19">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="5">
@@ -1357,20 +1353,20 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="5">
@@ -1378,93 +1374,93 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="21">
+      <c r="A22" s="19">
         <v>14</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="32" t="s">
+      <c r="B22" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="31">
         <v>8</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="21">
+      <c r="A23" s="19">
         <v>15</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21">
+      <c r="A24" s="19">
         <v>16</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="26">
         <v>6</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21">
+      <c r="A25" s="19">
         <v>17</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21">
+      <c r="A26" s="19">
         <v>18</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="26">
         <v>6</v>
       </c>
     </row>
@@ -1514,32 +1510,32 @@
     </row>
     <row r="2" spans="1:3" ht="23.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43525F5-30DA-4826-8C93-F163DE36F88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4FB932-DD4D-4E89-9A08-9E6CECB9C5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="768" windowWidth="22752" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>細目代號</t>
-  </si>
-  <si>
-    <t>AcNoItem</t>
   </si>
   <si>
     <t>科子細目名稱</t>
@@ -321,10 +318,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>使用記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>銷帳科目記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -332,6 +325,30 @@
     <t>0－非銷帳科目
 2－業務銷帳科目(銷帳編號由業務自編,ex:暫付及待結轉帳項－火險保費)
 8－總帳銷帳碼科目(銷帳編號由業務自編,ex:應收利息，不會寫入銷帳檔)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAcItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>likeAcItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoItem%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND AcSubCode &gt;= ,AND AcSubCode &lt;= ,AND AcDtlCode &gt;= ,AND AcDtlCode &lt;= ,AND AcNoItem%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款部使用記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -667,9 +684,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -707,9 +724,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,26 +759,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,26 +794,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -989,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1023,7 +1006,7 @@
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
@@ -1038,7 +1021,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>12</v>
@@ -1064,7 +1047,7 @@
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="10"/>
@@ -1121,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>42</v>
@@ -1140,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>43</v>
@@ -1159,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>44</v>
@@ -1178,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="5">
         <v>40</v>
@@ -1200,7 +1183,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>15</v>
@@ -1216,13 +1199,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -1235,10 +1218,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>17</v>
@@ -1248,7 +1231,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6">
@@ -1259,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>17</v>
@@ -1269,7 +1252,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4">
@@ -1280,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>15</v>
@@ -1290,7 +1273,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36.450000000000003" customHeight="1">
@@ -1301,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>14</v>
@@ -1311,7 +1294,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="81">
@@ -1322,7 +1305,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>14</v>
@@ -1332,7 +1315,7 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="97.2">
@@ -1340,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
@@ -1353,7 +1336,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1">
@@ -1364,7 +1347,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>14</v>
@@ -1374,7 +1357,7 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1382,10 +1365,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>70</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>11</v>
@@ -1482,17 +1465,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="139.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1510,32 +1493,54 @@
     </row>
     <row r="2" spans="1:3" ht="23.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4FB932-DD4D-4E89-9A08-9E6CECB9C5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E285491-EC29-46B5-A97F-17F8DFAA3D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="768" windowWidth="22752" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -350,6 +347,9 @@
   <si>
     <t>放款部使用記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -973,7 +973,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1006,7 +1006,7 @@
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>12</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="10"/>
@@ -1104,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>11</v>
@@ -1123,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>29</v>
@@ -1142,10 +1142,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>15</v>
@@ -1161,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="5">
         <v>40</v>
@@ -1183,7 +1183,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>15</v>
@@ -1199,13 +1199,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -1218,10 +1218,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>17</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6">
@@ -1242,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>17</v>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4">
@@ -1263,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>15</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36.450000000000003" customHeight="1">
@@ -1284,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>14</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="81">
@@ -1305,7 +1305,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>14</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="97.2">
@@ -1323,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1">
@@ -1347,7 +1347,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>14</v>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1365,10 +1365,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>11</v>
@@ -1390,7 +1390,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="9"/>
@@ -1401,13 +1401,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="D24" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="E24" s="26">
         <v>6</v>
@@ -1420,13 +1420,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>39</v>
-      </c>
       <c r="D25" s="26" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E25" s="26"/>
     </row>
@@ -1435,13 +1435,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>41</v>
-      </c>
       <c r="D26" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="26">
         <v>6</v>
@@ -1493,54 +1493,54 @@
     </row>
     <row r="2" spans="1:3" ht="23.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
